--- a/public/templates/Snakebite_Annual_Report.xlsx
+++ b/public/templates/Snakebite_Annual_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B63016E-61D8-4B6D-96D2-BB58C02830C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438062A5-1DF3-46BF-AC14-EA8B4B81A3F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" xr2:uid="{DB2194B8-D1B2-44B6-928F-78499E76ED72}"/>
   </bookViews>
@@ -22,6 +22,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>SNAKEBITE_ANNUAL_REPORT_v1</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,7 +384,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/templates/Snakebite_Annual_Report.xlsx
+++ b/public/templates/Snakebite_Annual_Report.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438062A5-1DF3-46BF-AC14-EA8B4B81A3F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660D10B0-41AB-4FB3-B1E2-D825AEE57084}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" xr2:uid="{DB2194B8-D1B2-44B6-928F-78499E76ED72}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="National" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -381,11 +381,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9429AB-0079-43CF-AEC6-155E6ED5E278}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
